--- a/BingoData/Bingo_Core_SUITE.xlsx
+++ b/BingoData/Bingo_Core_SUITE.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\vernons_bingo\BingoData\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="146">
   <si>
     <t>TestCases</t>
   </si>
@@ -436,6 +436,33 @@
   </si>
   <si>
     <t>Wift$8%t7O^SKouOuMF0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -609,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,6 +656,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,14 +1933,14 @@
       <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>1990</v>
+      <c r="F25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -1941,14 +1969,14 @@
       <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>1990</v>
+      <c r="F26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>75</v>
@@ -1974,14 +2002,14 @@
       <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1980</v>
+      <c r="F27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J27" t="s">
         <v>75</v>
@@ -1992,7 +2020,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
@@ -2007,14 +2035,14 @@
       <c r="E28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="8">
-        <v>7</v>
-      </c>
-      <c r="G28" s="8">
-        <v>7</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1990</v>
+      <c r="F28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>83</v>
@@ -2026,7 +2054,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2039,14 +2067,14 @@
       <c r="E29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="8">
-        <v>3</v>
-      </c>
-      <c r="G29" s="8">
-        <v>9</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1981</v>
+      <c r="F29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="I29" t="s">
         <v>134</v>
@@ -2060,7 +2088,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2075,14 +2103,14 @@
       <c r="E30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="8">
-        <v>3</v>
-      </c>
-      <c r="G30" s="8">
-        <v>9</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1980</v>
+      <c r="F30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I30">
         <v>12345678</v>
@@ -2096,7 +2124,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2111,14 +2139,14 @@
       <c r="E31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="8">
-        <v>3</v>
-      </c>
-      <c r="G31" s="8">
-        <v>9</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1980</v>
+      <c r="F31" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I31" t="s">
         <v>135</v>
@@ -2132,7 +2160,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2147,14 +2175,14 @@
       <c r="E32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="8">
-        <v>3</v>
-      </c>
-      <c r="G32" s="8">
-        <v>9</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1980</v>
+      <c r="F32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I32" t="s">
         <v>74</v>
@@ -2168,7 +2196,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2183,14 +2211,14 @@
       <c r="E33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="8">
-        <v>3</v>
-      </c>
-      <c r="G33" s="8">
-        <v>9</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1980</v>
+      <c r="F33" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I33" t="s">
         <v>127</v>
@@ -2204,7 +2232,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2219,14 +2247,14 @@
       <c r="E34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="8">
-        <v>3</v>
-      </c>
-      <c r="G34" s="8">
-        <v>9</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1980</v>
+      <c r="F34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I34" t="s">
         <v>128</v>
@@ -2239,7 +2267,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
@@ -2254,14 +2282,14 @@
       <c r="E35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="8">
-        <v>3</v>
-      </c>
-      <c r="G35" s="8">
-        <v>9</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1980</v>
+      <c r="F35" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I35" t="s">
         <v>118</v>

--- a/BingoData/Bingo_Core_SUITE.xlsx
+++ b/BingoData/Bingo_Core_SUITE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="151">
   <si>
     <t>TestCases</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,16 +1286,16 @@
       <c r="J10" t="s">
         <v>37</v>
       </c>
-      <c r="K10">
-        <v>3</v>
+      <c r="K10" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10">
-        <v>1980</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O10" t="s">
@@ -1327,14 +1342,14 @@
       <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="K11">
-        <v>3</v>
+      <c r="K11" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
       </c>
-      <c r="M11">
-        <v>1980</v>
+      <c r="M11" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="N11" t="s">
         <v>86</v>
@@ -1383,14 +1398,14 @@
       <c r="J12" t="s">
         <v>53</v>
       </c>
-      <c r="K12">
-        <v>3</v>
+      <c r="K12" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="M12">
-        <v>1980</v>
+      <c r="M12" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="N12" s="15">
         <v>0.08</v>
@@ -1439,16 +1454,16 @@
       <c r="J13" t="s">
         <v>60</v>
       </c>
-      <c r="K13">
-        <v>3</v>
+      <c r="K13" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L13" t="s">
         <v>38</v>
       </c>
-      <c r="M13">
-        <v>1980</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O13" t="s">
@@ -1486,14 +1501,14 @@
       <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="K14">
-        <v>3</v>
+      <c r="K14" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
       </c>
-      <c r="M14">
-        <v>1980</v>
+      <c r="M14" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>89</v>
@@ -1536,14 +1551,14 @@
       <c r="J15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K15">
-        <v>23</v>
+      <c r="K15" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="L15" t="s">
         <v>95</v>
       </c>
-      <c r="M15">
-        <v>2018</v>
+      <c r="M15" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="N15" s="16">
         <v>80</v>
@@ -1592,14 +1607,14 @@
       <c r="J16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>2015</v>
-      </c>
-      <c r="N16">
-        <v>8</v>
+      <c r="K16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="O16" t="s">
         <v>103</v>
@@ -1631,17 +1646,17 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17">
-        <v>3</v>
+      <c r="K17" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
       </c>
-      <c r="M17">
-        <v>1980</v>
-      </c>
-      <c r="N17">
-        <v>80</v>
+      <c r="M17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="O17" t="s">
         <v>107</v>
@@ -1681,14 +1696,14 @@
       <c r="I18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K18">
-        <v>3</v>
+      <c r="K18" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L18" t="s">
         <v>38</v>
       </c>
-      <c r="M18">
-        <v>2001</v>
+      <c r="M18" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="O18" t="s">
         <v>114</v>
@@ -1734,17 +1749,17 @@
       <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="K19">
-        <v>3</v>
+      <c r="K19" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L19" t="s">
         <v>38</v>
       </c>
-      <c r="M19">
-        <v>1980</v>
-      </c>
-      <c r="N19">
-        <v>80</v>
+      <c r="M19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
@@ -1788,17 +1803,17 @@
       <c r="J20" t="s">
         <v>67</v>
       </c>
-      <c r="K20">
-        <v>3</v>
+      <c r="K20" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L20" t="s">
         <v>38</v>
       </c>
-      <c r="M20">
-        <v>1980</v>
-      </c>
-      <c r="N20">
-        <v>80</v>
+      <c r="M20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="O20" t="s">
         <v>68</v>
@@ -1844,17 +1859,17 @@
       <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="K21">
-        <v>3</v>
+      <c r="K21" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
-      <c r="M21">
-        <v>1980</v>
-      </c>
-      <c r="N21">
-        <v>80</v>
+      <c r="M21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="O21" t="s">
         <v>68</v>
